--- a/data/health/indicator_3 lung male mortality.xlsx
+++ b/data/health/indicator_3 lung male mortality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1355,7 +1355,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B1" sqref="B1:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1458,45 +1458,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5">
+        <v>11.84</v>
+      </c>
+      <c r="C5" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>13.76</v>
+      </c>
+      <c r="E5" s="5">
+        <v>14.08</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
         <v>35.81</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="5">
         <v>37.58</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="5">
         <v>40.81</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="5">
-        <v>11.84</v>
-      </c>
-      <c r="C6" s="5">
-        <v>13.5</v>
-      </c>
-      <c r="D6" s="5">
-        <v>13.76</v>
-      </c>
-      <c r="E6" s="5">
-        <v>14.08</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1630,17 +1630,17 @@
     </row>
     <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5">
-        <v>25.23</v>
+        <v>67.84</v>
       </c>
       <c r="D12" s="5">
-        <v>37.840000000000003</v>
+        <v>63.97</v>
       </c>
       <c r="E12" s="5">
-        <v>38.46</v>
+        <v>54.38</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1652,9 +1652,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1672,19 +1672,17 @@
     </row>
     <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="5">
-        <v>13.34</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="5">
-        <v>15.83</v>
+        <v>25.23</v>
       </c>
       <c r="D14" s="5">
-        <v>15.36</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="E14" s="5">
-        <v>13.62</v>
+        <v>38.46</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1698,20 +1696,12 @@
     </row>
     <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="5">
-        <v>77.180000000000007</v>
-      </c>
-      <c r="C15" s="5">
-        <v>71.72</v>
-      </c>
-      <c r="D15" s="5">
-        <v>62.74</v>
-      </c>
-      <c r="E15" s="5">
-        <v>54.37</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15">
         <v>0</v>
       </c>
@@ -1724,19 +1714,19 @@
     </row>
     <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5">
-        <v>51.01</v>
+        <v>13.34</v>
       </c>
       <c r="C16" s="5">
-        <v>42.92</v>
+        <v>15.83</v>
       </c>
       <c r="D16" s="5">
-        <v>38.42</v>
+        <v>15.36</v>
       </c>
       <c r="E16" s="5">
-        <v>32.799999999999997</v>
+        <v>13.62</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1750,12 +1740,20 @@
     </row>
     <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="B17" s="5">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="C17" s="5">
+        <v>71.72</v>
+      </c>
+      <c r="D17" s="5">
+        <v>62.74</v>
+      </c>
+      <c r="E17" s="5">
+        <v>54.37</v>
+      </c>
       <c r="F17">
         <v>0</v>
       </c>
@@ -1768,12 +1766,20 @@
     </row>
     <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="B18" s="5">
+        <v>51.01</v>
+      </c>
+      <c r="C18" s="5">
+        <v>42.92</v>
+      </c>
+      <c r="D18" s="5">
+        <v>38.42</v>
+      </c>
+      <c r="E18" s="5">
+        <v>32.799999999999997</v>
+      </c>
       <c r="F18">
         <v>0</v>
       </c>
@@ -1786,20 +1792,12 @@
     </row>
     <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="5">
-        <v>34.130000000000003</v>
-      </c>
-      <c r="C19" s="5">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="D19" s="5">
-        <v>44.6</v>
-      </c>
-      <c r="E19" s="5">
-        <v>44.13</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19">
         <v>0</v>
       </c>
@@ -1812,20 +1810,12 @@
     </row>
     <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="5">
-        <v>64.849999999999994</v>
-      </c>
-      <c r="C20" s="5">
-        <v>72.31</v>
-      </c>
-      <c r="D20" s="5">
-        <v>72.27</v>
-      </c>
-      <c r="E20" s="5">
-        <v>61.75</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20">
         <v>0</v>
       </c>
@@ -1838,19 +1828,19 @@
     </row>
     <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" s="5">
-        <v>51.12</v>
+        <v>63.56</v>
       </c>
       <c r="C21" s="5">
-        <v>53.68</v>
+        <v>69.38</v>
       </c>
       <c r="D21" s="5">
-        <v>40.46</v>
+        <v>71.3</v>
       </c>
       <c r="E21" s="5">
-        <v>37.450000000000003</v>
+        <v>67.69</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1864,19 +1854,19 @@
     </row>
     <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5">
-        <v>39.369999999999997</v>
+        <v>34.130000000000003</v>
       </c>
       <c r="C22" s="5">
-        <v>45.31</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="D22" s="5">
-        <v>48.17</v>
+        <v>44.6</v>
       </c>
       <c r="E22" s="5">
-        <v>47.45</v>
+        <v>44.13</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1890,19 +1880,19 @@
     </row>
     <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" s="5">
-        <v>24.4</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="C23" s="5">
-        <v>22.56</v>
+        <v>72.31</v>
       </c>
       <c r="D23" s="5">
-        <v>22.96</v>
+        <v>72.27</v>
       </c>
       <c r="E23" s="5">
-        <v>21.62</v>
+        <v>61.75</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1916,17 +1906,19 @@
     </row>
     <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5">
-        <v>4.79</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>51.12</v>
+      </c>
+      <c r="C24" s="5">
+        <v>53.68</v>
+      </c>
       <c r="D24" s="5">
-        <v>7.41</v>
+        <v>40.46</v>
       </c>
       <c r="E24" s="5">
-        <v>10.52</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1940,19 +1932,19 @@
     </row>
     <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" s="5">
-        <v>56.08</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="C25" s="5">
-        <v>55.58</v>
+        <v>45.31</v>
       </c>
       <c r="D25" s="5">
-        <v>52.74</v>
+        <v>48.17</v>
       </c>
       <c r="E25" s="5">
-        <v>46.54</v>
+        <v>47.45</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1964,14 +1956,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="B26" s="5">
+        <v>24.4</v>
+      </c>
+      <c r="C26" s="5">
+        <v>22.56</v>
+      </c>
+      <c r="D26" s="5">
+        <v>22.96</v>
+      </c>
+      <c r="E26" s="5">
+        <v>21.62</v>
+      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -1982,19 +1982,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5">
-        <v>67.84</v>
-      </c>
-      <c r="D27" s="5">
-        <v>63.97</v>
-      </c>
-      <c r="E27" s="5">
-        <v>54.38</v>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>85</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2008,12 +1998,18 @@
     </row>
     <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="B28" s="5">
+        <v>4.79</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="5">
+        <v>7.41</v>
+      </c>
+      <c r="E28" s="5">
+        <v>10.52</v>
+      </c>
       <c r="F28">
         <v>0</v>
       </c>
@@ -2026,19 +2022,19 @@
     </row>
     <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B29" s="5">
-        <v>63.56</v>
+        <v>56.08</v>
       </c>
       <c r="C29" s="5">
-        <v>69.38</v>
+        <v>55.58</v>
       </c>
       <c r="D29" s="5">
-        <v>71.3</v>
+        <v>52.74</v>
       </c>
       <c r="E29" s="5">
-        <v>67.69</v>
+        <v>46.54</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2050,10 +2046,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>85</v>
-      </c>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30">
         <v>0</v>
       </c>
